--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55301.95780778347</v>
+        <v>81243.95406877724</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484434</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8507248.287592772</v>
+        <v>8545127.07820354</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>36.72507387644409</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>225.282156682826</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>71.68012989008245</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>320.7046441476144</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>426.1073322928577</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1054,7 +1054,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>35.47248331510059</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1063,13 +1063,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>37.34915078316273</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>91.45883723392443</v>
       </c>
       <c r="C8" t="n">
-        <v>374.4170182760189</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>155.8936357867351</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>221.1091630478549</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>379.2924195143603</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>309.2588241657145</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1528,10 +1528,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>56.95997704284446</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1591,10 +1591,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.9879808696992</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>379.2924195143593</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>136.1921297287224</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>53.90045570694547</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>159.2712338520867</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>155.5776225602647</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>136.6047512078538</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>116.0434079398614</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170465</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>165.7499153537912</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>18.64034175572471</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>104.6990987647609</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>172.4933240080315</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>73.29899740799712</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907179</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>28.46824604904431</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>31.24391673888186</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630718</v>
       </c>
     </row>
     <row r="32">
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930767003</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3281,7 +3281,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.238853011215</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3478,7 +3478,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>52.51170991984756</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3487,10 +3487,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>189.9879808696992</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948861</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225808</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3721,7 +3721,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>199.5895679887572</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3740,25 +3740,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948855</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,13 +3797,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3977,25 +3977,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,16 +4034,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946015</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>974.0783358803401</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.618961230546</v>
+        <v>535.9358630637633</v>
       </c>
       <c r="D2" t="n">
-        <v>788.0372869678147</v>
+        <v>504.0664822786119</v>
       </c>
       <c r="E2" t="n">
-        <v>750.9412527491843</v>
+        <v>474.3321414773112</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>450.5051159269229</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1699.767264620228</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797689</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756283</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2227.806493486284</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1808.664030065594</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1400.377906365248</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397434</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.1709577106444</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>526.7806337295247</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>454.3764621233807</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>454.3764621233807</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>454.3764621233807</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>277.669408085137</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>277.669408085137</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755115</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>200.0427573423663</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>618.2526391103273</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1077.73650629124</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1519.995309448885</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1939.664558674667</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645008</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214712</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512709</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2028.825591091164</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1750.392590344269</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1463.4370822147</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>1191.410677800991</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>946.0189231344036</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>718.5992524485118</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1353.076515494037</v>
+        <v>1381.691946481611</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.974446717864</v>
+        <v>943.5494736650346</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>507.6396888394791</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1403.951112926115</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.1413766661235</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>369.5796651493484</v>
+        <v>705.6464414242379</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>539.7684486257606</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1478.797825151298</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1478.797825151298</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.797825151298</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1206.77142073759</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>961.3796660710025</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>733.9599953851107</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>500.4016909549682</v>
+        <v>1270.144995079233</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2026825953531</v>
+        <v>832.0025222626567</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33330181020172</v>
+        <v>800.1331414775053</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890096</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851275</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851275</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105259</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105259</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105259</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105259</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1382.132025509621</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1669.442708172581</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172581</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925638</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109475</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1754.944899109475</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1754.944899109475</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1754.944899109475</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W8" t="n">
-        <v>1350.089444520508</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X8" t="n">
-        <v>1334.987385140223</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y8" t="n">
-        <v>926.701261439876</v>
+        <v>1362.527658951884</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330011</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599548</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230028</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897034</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>387.3939335851827</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>387.3939335851827</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>387.3939335851827</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>387.3939335851827</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447914</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.170146845069</v>
+        <v>790.1610481280939</v>
       </c>
       <c r="C10" t="n">
-        <v>854.6084353282944</v>
+        <v>617.5993366113188</v>
       </c>
       <c r="D10" t="n">
-        <v>688.7304425298171</v>
+        <v>451.7213438128414</v>
       </c>
       <c r="E10" t="n">
-        <v>518.9724387805544</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F10" t="n">
-        <v>342.2653847423106</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681382</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851275</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851275</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851275</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264738</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.1618265718699</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729515</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955296</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925638</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925638</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.17895163101</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929006</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507461</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1254.589817530961</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1254.589817530961</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1254.589817530961</v>
+        <v>1454.79109219956</v>
       </c>
       <c r="X10" t="n">
-        <v>1254.589817530961</v>
+        <v>1209.399337532973</v>
       </c>
       <c r="Y10" t="n">
-        <v>1027.170146845069</v>
+        <v>981.979666847081</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689265</v>
+        <v>2472.72409529553</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2034.581622478954</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047133</v>
+        <v>1598.671837653398</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205428</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2639626146353</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378991</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302704</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="U11" t="n">
-        <v>4493.924657556613</v>
+        <v>4493.924657556614</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884175</v>
+        <v>4131.30770749044</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295208</v>
+        <v>3726.452252901474</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3307.309789480785</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174173</v>
+        <v>2899.023665780438</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.134188067672</v>
+        <v>806.2298140987274</v>
       </c>
       <c r="C13" t="n">
-        <v>914.5724765508969</v>
+        <v>748.6944837524196</v>
       </c>
       <c r="D13" t="n">
         <v>748.6944837524196</v>
       </c>
       <c r="E13" t="n">
-        <v>578.9364800031569</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F13" t="n">
-        <v>402.2294259649132</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907408</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J13" t="n">
         <v>183.3156618458051</v>
@@ -5221,13 +5221,13 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
         <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460366</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
         <v>2029.841770713472</v>
@@ -5239,10 +5239,10 @@
         <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1470.859858170194</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.952806786659</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2472.724095295529</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2034.581622478953</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.671837653397</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
         <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397518</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5291,37 +5291,37 @@
         <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302703</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556613</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V14" t="n">
-        <v>4131.307707490439</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W14" t="n">
-        <v>3726.452252901473</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X14" t="n">
-        <v>3307.309789480784</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y14" t="n">
-        <v>2899.023665780437</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K15" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q15" t="n">
         <v>1642.802960065584</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987272</v>
+        <v>917.3761843184092</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819521</v>
+        <v>744.8144728016341</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834748</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="E16" t="n">
-        <v>467.7901097834748</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F16" t="n">
-        <v>291.083055745231</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G16" t="n">
-        <v>291.083055745231</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>151.1808814356056</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J16" t="n">
         <v>183.3156618458051</v>
@@ -5464,7 +5464,7 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460366</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
         <v>2029.841770713472</v>
@@ -5473,13 +5473,13 @@
         <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1582.006228389876</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1336.614473723288</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177142</v>
+        <v>1109.194803037396</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351992</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526437</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847319</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111519</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5537,28 +5537,28 @@
         <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K18" t="n">
         <v>1102.064021433509</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.8119928040991</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C19" t="n">
-        <v>784.8119928040991</v>
+        <v>633.6681025819522</v>
       </c>
       <c r="D19" t="n">
-        <v>667.5964292284815</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>298.0321060342122</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J19" t="n">
         <v>183.3156618458051</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U19" t="n">
-        <v>2008.423949418843</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.468441289274</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1449.442036875565</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.050282208978</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y19" t="n">
-        <v>976.6306115230861</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168566</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.51439535199</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526434</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847292</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>516.962436093937</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G20" t="n">
-        <v>115.5646047172008</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111516</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2481.810506693461</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693461</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.990173263767</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097163</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.798834055758</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.85743042965</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363476</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.38502577451</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353821</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653474</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1087.134188067672</v>
+        <v>910.4271340294283</v>
       </c>
       <c r="C22" t="n">
-        <v>914.5724765508968</v>
+        <v>737.8654225126533</v>
       </c>
       <c r="D22" t="n">
-        <v>748.6944837524195</v>
+        <v>571.987429714176</v>
       </c>
       <c r="E22" t="n">
-        <v>578.9364800031568</v>
+        <v>402.2294259649132</v>
       </c>
       <c r="F22" t="n">
-        <v>402.229425964913</v>
+        <v>402.2294259649132</v>
       </c>
       <c r="G22" t="n">
-        <v>236.6381509907407</v>
+        <v>236.6381509907408</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2607.638921164964</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2361.759474743419</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2083.326473996524</v>
+        <v>2134.039090644173</v>
       </c>
       <c r="V22" t="n">
-        <v>1796.370965866955</v>
+        <v>1847.083582514603</v>
       </c>
       <c r="W22" t="n">
-        <v>1524.344561453247</v>
+        <v>1575.057178100895</v>
       </c>
       <c r="X22" t="n">
-        <v>1278.952806786659</v>
+        <v>1329.665423434307</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.952806786659</v>
+        <v>1102.245752748415</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>875.5388337745582</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085203</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2623.463237557742</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2377.583791136197</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2099.150790389303</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1812.195282259733</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1540.168877846025</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1294.777123179437</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1067.357452493545</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>1039.550377927472</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2114.610344180331</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3271.658179390882</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883919</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716168</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731395</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>473.3149733731395</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>296.6079193348957</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>131.0166443607234</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6415,13 +6415,13 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
         <v>1230.992967093271</v>
@@ -6461,13 +6461,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
         <v>3007.131363532227</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883921</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
         <v>780.1951658309357</v>
@@ -6613,19 +6613,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707798</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707798</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354697</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066052</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745664</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M31" t="n">
         <v>1341.292728955479</v>
@@ -6652,19 +6652,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759859</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6698,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2837.977298779171</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
         <v>614.3171730324584</v>
@@ -6883,10 +6883,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
         <v>2176.368833962455</v>
@@ -6929,34 +6929,34 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405615</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420842</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755402</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X37" t="n">
-        <v>1284.477670376324</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376324</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F38" t="n">
         <v>793.2056155771595</v>
@@ -7169,55 +7169,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.55247213528</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705586</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="39">
@@ -7242,10 +7242,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.416826573035</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C40" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D40" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
         <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7479,37 +7479,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C43" t="n">
         <v>780.1951658309358</v>
@@ -7552,28 +7552,28 @@
         <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
         <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066049</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
         <v>1341.292728955479</v>
@@ -7594,7 +7594,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
         <v>2454.80183470935</v>
@@ -7625,7 +7625,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7634,43 +7634,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
         <v>5029.390139722818</v>
@@ -7682,16 +7682,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7728,22 +7728,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066047</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745655</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O46" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q46" t="n">
         <v>2718.920450173579</v>
@@ -7831,19 +7831,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2454.801834709351</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2176.368833962456</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832887</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X46" t="n">
         <v>1371.99516675259</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>40.34758805804131</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854748</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,19 +8137,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>65.00584608837337</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314094</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314095</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706662</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662714</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314094</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>175.9394033791881</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,7 +8708,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>421.974046014072</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>860.035541581457</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807277</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9875,22 +9875,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>507.105909296742</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>565.8642197954468</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>288.735183296506</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207523</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,10 +10841,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>50.14457787892746</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>49.73195639979724</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>35.15749310933364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.14457787892849</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>268.0111327346207</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>33.87289402612594</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>110.0349065174846</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>268.0111327346196</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>267.5985112554895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>48.17580493063113</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>268.0111327346197</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.5985112554912</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>52.94985625022238</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>103.1553467313942</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>84.34995760698618</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>110.0349065174849</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
     </row>
     <row r="32">
@@ -25123,13 +25123,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>223.1369608195781</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>52.94985625022249</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25567,7 +25567,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627252</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>69.71657238081423</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>139.5921776627258</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.5921776627278</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>720380.712432378</v>
+        <v>732043.8306144028</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>720380.712432378</v>
+        <v>735346.5149015788</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>722556.0781706189</v>
+        <v>735346.5149015788</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>721911.182030765</v>
+        <v>721911.1820307651</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>721911.1820307648</v>
+        <v>721911.182030765</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254669.976947944</v>
+        <v>254669.9769479441</v>
       </c>
       <c r="C2" t="n">
         <v>254669.9769479441</v>
@@ -26323,13 +26323,13 @@
         <v>240123.8515365464</v>
       </c>
       <c r="F2" t="n">
+        <v>240123.8515365463</v>
+      </c>
+      <c r="G2" t="n">
         <v>240123.8515365464</v>
       </c>
-      <c r="G2" t="n">
-        <v>240123.8515365463</v>
-      </c>
       <c r="H2" t="n">
-        <v>240123.8515365462</v>
+        <v>240123.8515365464</v>
       </c>
       <c r="I2" t="n">
         <v>250257.3524652424</v>
@@ -26350,7 +26350,7 @@
         <v>250257.3524652424</v>
       </c>
       <c r="O2" t="n">
-        <v>250257.3524652424</v>
+        <v>250257.3524652425</v>
       </c>
       <c r="P2" t="n">
         <v>250257.3524652424</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039032</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390642</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720027</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101145</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283958</v>
+        <v>18364.7156328394</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784496</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509917</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104676</v>
+        <v>134989.9446130036</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>174244.3817256395</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>200045.3005001109</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>78141.89423804611</v>
+        <v>78141.89423804612</v>
       </c>
       <c r="F4" t="n">
         <v>78141.89423804611</v>
       </c>
       <c r="G4" t="n">
-        <v>78141.89423804609</v>
+        <v>78141.89423804612</v>
       </c>
       <c r="H4" t="n">
-        <v>78141.89423804608</v>
+        <v>78141.89423804611</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
@@ -26448,16 +26448,16 @@
         <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="O4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="P4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.5714690428</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814197</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846969</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152907.084690855</v>
+        <v>-196235.7975397405</v>
       </c>
       <c r="C6" t="n">
-        <v>-10715.78403114506</v>
+        <v>-2146.180247278433</v>
       </c>
       <c r="D6" t="n">
-        <v>-17931.40117263916</v>
+        <v>15194.36412662796</v>
       </c>
       <c r="E6" t="n">
-        <v>-135336.6787311746</v>
+        <v>-73349.01874405865</v>
       </c>
       <c r="F6" t="n">
-        <v>88462.61502085273</v>
+        <v>88386.05646605582</v>
       </c>
       <c r="G6" t="n">
-        <v>88462.6150208527</v>
+        <v>88386.0564660559</v>
       </c>
       <c r="H6" t="n">
-        <v>88462.61502085274</v>
+        <v>88386.0564660559</v>
       </c>
       <c r="I6" t="n">
-        <v>72734.82675756747</v>
+        <v>72711.60241818501</v>
       </c>
       <c r="J6" t="n">
-        <v>-19914.92295458313</v>
+        <v>-69531.51143458906</v>
       </c>
       <c r="K6" t="n">
-        <v>91099.54239040703</v>
+        <v>77262.30948317944</v>
       </c>
       <c r="L6" t="n">
-        <v>82151.93130189713</v>
+        <v>91076.3180510244</v>
       </c>
       <c r="M6" t="n">
-        <v>-95691.4442200606</v>
+        <v>-43913.62656197919</v>
       </c>
       <c r="N6" t="n">
-        <v>91099.54239040712</v>
+        <v>91076.31805102444</v>
       </c>
       <c r="O6" t="n">
-        <v>91099.54239040708</v>
+        <v>91076.31805102459</v>
       </c>
       <c r="P6" t="n">
-        <v>91099.54239040706</v>
+        <v>91076.31805102447</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314094</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26805,7 +26805,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130509</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825303</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080592</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130509</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825301</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130509</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825303</v>
+        <v>541.6845019060831</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E2" t="n">
-        <v>392.7119235168437</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>175.524743360251</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>99.15596451152486</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27546,16 +27546,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.3319306324443</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.329665100430077</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27667,16 +27667,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>206.0715011741665</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>330.5777375461342</v>
       </c>
       <c r="C8" t="n">
-        <v>59.34402981239202</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>119.7550349526906</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>48.19697732171645</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1.18999051131656e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-1.108506085993625e-12</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,22 +30508,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="45">
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>40.34758805804131</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854748</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>65.00584608837337</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314094</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314095</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706662</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662714</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314094</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>175.9394033791881</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>421.974046014072</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35659,16 +35659,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>860.035541581457</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807277</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36595,22 +36595,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>507.105909296742</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>565.8642197954468</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36993,22 +36993,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>288.735183296506</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207523</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37561,10 +37561,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38093,10 +38093,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908061</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960962</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080412</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -38190,7 +38190,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>
